--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Osmr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H2">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I2">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J2">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.6922929446753</v>
+        <v>48.38001766666667</v>
       </c>
       <c r="N2">
-        <v>47.6922929446753</v>
+        <v>145.140053</v>
       </c>
       <c r="O2">
-        <v>0.4074855986175641</v>
+        <v>0.4078615449886351</v>
       </c>
       <c r="P2">
-        <v>0.4074855986175641</v>
+        <v>0.4078615449886351</v>
       </c>
       <c r="Q2">
-        <v>1049.676702590253</v>
+        <v>9.905244183710556</v>
       </c>
       <c r="R2">
-        <v>1049.676702590253</v>
+        <v>89.147197653395</v>
       </c>
       <c r="S2">
-        <v>0.1591898336597583</v>
+        <v>0.001344442584396366</v>
       </c>
       <c r="T2">
-        <v>0.1591898336597583</v>
+        <v>0.001344442584396366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H3">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I3">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J3">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.2551588853066</v>
+        <v>60.87163533333334</v>
       </c>
       <c r="N3">
-        <v>60.2551588853066</v>
+        <v>182.614906</v>
       </c>
       <c r="O3">
-        <v>0.5148234226577877</v>
+        <v>0.5131705284627005</v>
       </c>
       <c r="P3">
-        <v>0.5148234226577877</v>
+        <v>0.5131705284627006</v>
       </c>
       <c r="Q3">
-        <v>1326.177304290041</v>
+        <v>12.46275716542111</v>
       </c>
       <c r="R3">
-        <v>1326.177304290041</v>
+        <v>112.16481448879</v>
       </c>
       <c r="S3">
-        <v>0.2011228256779627</v>
+        <v>0.001691574800320208</v>
       </c>
       <c r="T3">
-        <v>0.2011228256779627</v>
+        <v>0.001691574800320209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H4">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I4">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J4">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.09298617930286</v>
+        <v>0.09713466666666666</v>
       </c>
       <c r="N4">
-        <v>9.09298617930286</v>
+        <v>0.291404</v>
       </c>
       <c r="O4">
-        <v>0.07769097872464831</v>
+        <v>0.000818881371469998</v>
       </c>
       <c r="P4">
-        <v>0.07769097872464831</v>
+        <v>0.0008188813714699981</v>
       </c>
       <c r="Q4">
-        <v>200.1307792112563</v>
+        <v>0.01988718976222222</v>
       </c>
       <c r="R4">
-        <v>200.1307792112563</v>
+        <v>0.17898470786</v>
       </c>
       <c r="S4">
-        <v>0.03035104558786606</v>
+        <v>2.699295878467391E-06</v>
       </c>
       <c r="T4">
-        <v>0.03035104558786606</v>
+        <v>2.699295878467391E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>34.3290146878787</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H5">
-        <v>34.3290146878787</v>
+        <v>0.614215</v>
       </c>
       <c r="I5">
-        <v>0.6093362950744129</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J5">
-        <v>0.6093362950744129</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>47.6922929446753</v>
+        <v>0.04810533333333333</v>
       </c>
       <c r="N5">
-        <v>47.6922929446753</v>
+        <v>0.144316</v>
       </c>
       <c r="O5">
-        <v>0.4074855986175641</v>
+        <v>0.000405545853883489</v>
       </c>
       <c r="P5">
-        <v>0.4074855986175641</v>
+        <v>0.0004055458538834891</v>
       </c>
       <c r="Q5">
-        <v>1637.229424996372</v>
+        <v>0.009849005771111112</v>
       </c>
       <c r="R5">
-        <v>1637.229424996372</v>
+        <v>0.08864105193999999</v>
       </c>
       <c r="S5">
-        <v>0.2482957649578058</v>
+        <v>1.336809323128372E-06</v>
       </c>
       <c r="T5">
-        <v>0.2482957649578058</v>
+        <v>1.336809323128372E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>34.3290146878787</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H6">
-        <v>34.3290146878787</v>
+        <v>0.614215</v>
       </c>
       <c r="I6">
-        <v>0.6093362950744129</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J6">
-        <v>0.6093362950744129</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.2551588853066</v>
+        <v>9.221835</v>
       </c>
       <c r="N6">
-        <v>60.2551588853066</v>
+        <v>27.665505</v>
       </c>
       <c r="O6">
-        <v>0.5148234226577877</v>
+        <v>0.0777434993233109</v>
       </c>
       <c r="P6">
-        <v>0.5148234226577877</v>
+        <v>0.07774349932331091</v>
       </c>
       <c r="Q6">
-        <v>2068.500234394155</v>
+        <v>1.888063128175</v>
       </c>
       <c r="R6">
-        <v>2068.500234394155</v>
+        <v>16.992568153575</v>
       </c>
       <c r="S6">
-        <v>0.3137005969798249</v>
+        <v>0.0002562675310641549</v>
       </c>
       <c r="T6">
-        <v>0.3137005969798249</v>
+        <v>0.000256267531064155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.8320383333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.496115</v>
+      </c>
+      <c r="I7">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="J7">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>48.38001766666667</v>
+      </c>
+      <c r="N7">
+        <v>145.140053</v>
+      </c>
+      <c r="O7">
+        <v>0.4078615449886351</v>
+      </c>
+      <c r="P7">
+        <v>0.4078615449886351</v>
+      </c>
+      <c r="Q7">
+        <v>40.25402926601055</v>
+      </c>
+      <c r="R7">
+        <v>362.286263394095</v>
+      </c>
+      <c r="S7">
+        <v>0.005463694799948774</v>
+      </c>
+      <c r="T7">
+        <v>0.005463694799948774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.8320383333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.496115</v>
+      </c>
+      <c r="I8">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="J8">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>60.87163533333334</v>
+      </c>
+      <c r="N8">
+        <v>182.614906</v>
+      </c>
+      <c r="O8">
+        <v>0.5131705284627005</v>
+      </c>
+      <c r="P8">
+        <v>0.5131705284627006</v>
+      </c>
+      <c r="Q8">
+        <v>50.64753401002111</v>
+      </c>
+      <c r="R8">
+        <v>455.8278060901901</v>
+      </c>
+      <c r="S8">
+        <v>0.006874409177081767</v>
+      </c>
+      <c r="T8">
+        <v>0.006874409177081768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.8320383333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.496115</v>
+      </c>
+      <c r="I9">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="J9">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.09713466666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.291404</v>
+      </c>
+      <c r="O9">
+        <v>0.000818881371469998</v>
+      </c>
+      <c r="P9">
+        <v>0.0008188813714699981</v>
+      </c>
+      <c r="Q9">
+        <v>0.08081976616222222</v>
+      </c>
+      <c r="R9">
+        <v>0.72737789546</v>
+      </c>
+      <c r="S9">
+        <v>1.096969779585427E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.096969779585427E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.8320383333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.496115</v>
+      </c>
+      <c r="I10">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="J10">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04810533333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.144316</v>
+      </c>
+      <c r="O10">
+        <v>0.000405545853883489</v>
+      </c>
+      <c r="P10">
+        <v>0.0004055458538834891</v>
+      </c>
+      <c r="Q10">
+        <v>0.04002548137111111</v>
+      </c>
+      <c r="R10">
+        <v>0.36022933234</v>
+      </c>
+      <c r="S10">
+        <v>5.432673906694847E-06</v>
+      </c>
+      <c r="T10">
+        <v>5.432673906694848E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>34.3290146878787</v>
-      </c>
-      <c r="H7">
-        <v>34.3290146878787</v>
-      </c>
-      <c r="I7">
-        <v>0.6093362950744129</v>
-      </c>
-      <c r="J7">
-        <v>0.6093362950744129</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.09298617930286</v>
-      </c>
-      <c r="N7">
-        <v>9.09298617930286</v>
-      </c>
-      <c r="O7">
-        <v>0.07769097872464831</v>
-      </c>
-      <c r="P7">
-        <v>0.07769097872464831</v>
-      </c>
-      <c r="Q7">
-        <v>312.1532561059659</v>
-      </c>
-      <c r="R7">
-        <v>312.1532561059659</v>
-      </c>
-      <c r="S7">
-        <v>0.04733993313678223</v>
-      </c>
-      <c r="T7">
-        <v>0.04733993313678223</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.8320383333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.496115</v>
+      </c>
+      <c r="I11">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="J11">
+        <v>0.01339595474758724</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.221835</v>
+      </c>
+      <c r="N11">
+        <v>27.665505</v>
+      </c>
+      <c r="O11">
+        <v>0.0777434993233109</v>
+      </c>
+      <c r="P11">
+        <v>0.07774349932331091</v>
+      </c>
+      <c r="Q11">
+        <v>7.672920223675001</v>
+      </c>
+      <c r="R11">
+        <v>69.05628201307501</v>
+      </c>
+      <c r="S11">
+        <v>0.001041448398854152</v>
+      </c>
+      <c r="T11">
+        <v>0.001041448398854152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H12">
+        <v>67.953287</v>
+      </c>
+      <c r="I12">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J12">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>48.38001766666667</v>
+      </c>
+      <c r="N12">
+        <v>145.140053</v>
+      </c>
+      <c r="O12">
+        <v>0.4078615449886351</v>
+      </c>
+      <c r="P12">
+        <v>0.4078615449886351</v>
+      </c>
+      <c r="Q12">
+        <v>1095.86040852269</v>
+      </c>
+      <c r="R12">
+        <v>9862.743676704211</v>
+      </c>
+      <c r="S12">
+        <v>0.1487415527014287</v>
+      </c>
+      <c r="T12">
+        <v>0.1487415527014287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H13">
+        <v>67.953287</v>
+      </c>
+      <c r="I13">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J13">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>60.87163533333334</v>
+      </c>
+      <c r="N13">
+        <v>182.614906</v>
+      </c>
+      <c r="O13">
+        <v>0.5131705284627005</v>
+      </c>
+      <c r="P13">
+        <v>0.5131705284627006</v>
+      </c>
+      <c r="Q13">
+        <v>1378.80923532178</v>
+      </c>
+      <c r="R13">
+        <v>12409.28311789602</v>
+      </c>
+      <c r="S13">
+        <v>0.1871463052646497</v>
+      </c>
+      <c r="T13">
+        <v>0.1871463052646498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H14">
+        <v>67.953287</v>
+      </c>
+      <c r="I14">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J14">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.09713466666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.291404</v>
+      </c>
+      <c r="O14">
+        <v>0.000818881371469998</v>
+      </c>
+      <c r="P14">
+        <v>0.0008188813714699981</v>
+      </c>
+      <c r="Q14">
+        <v>2.200206627216444</v>
+      </c>
+      <c r="R14">
+        <v>19.801859644948</v>
+      </c>
+      <c r="S14">
+        <v>0.0002986348876654132</v>
+      </c>
+      <c r="T14">
+        <v>0.0002986348876654132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H15">
+        <v>67.953287</v>
+      </c>
+      <c r="I15">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J15">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04810533333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.144316</v>
+      </c>
+      <c r="O15">
+        <v>0.000405545853883489</v>
+      </c>
+      <c r="P15">
+        <v>0.0004055458538834891</v>
+      </c>
+      <c r="Q15">
+        <v>1.089638507410222</v>
+      </c>
+      <c r="R15">
+        <v>9.806746566692</v>
+      </c>
+      <c r="S15">
+        <v>0.0001478970516819322</v>
+      </c>
+      <c r="T15">
+        <v>0.0001478970516819322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H16">
+        <v>67.953287</v>
+      </c>
+      <c r="I16">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J16">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.221835</v>
+      </c>
+      <c r="N16">
+        <v>27.665505</v>
+      </c>
+      <c r="O16">
+        <v>0.0777434993233109</v>
+      </c>
+      <c r="P16">
+        <v>0.07774349932331091</v>
+      </c>
+      <c r="Q16">
+        <v>208.884666807215</v>
+      </c>
+      <c r="R16">
+        <v>1879.962001264935</v>
+      </c>
+      <c r="S16">
+        <v>0.02835199577865069</v>
+      </c>
+      <c r="T16">
+        <v>0.0283519957786507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.423291</v>
+      </c>
+      <c r="H17">
+        <v>115.269873</v>
+      </c>
+      <c r="I17">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J17">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>48.38001766666667</v>
+      </c>
+      <c r="N17">
+        <v>145.140053</v>
+      </c>
+      <c r="O17">
+        <v>0.4078615449886351</v>
+      </c>
+      <c r="P17">
+        <v>0.4078615449886351</v>
+      </c>
+      <c r="Q17">
+        <v>1858.919497391474</v>
+      </c>
+      <c r="R17">
+        <v>16730.27547652327</v>
+      </c>
+      <c r="S17">
+        <v>0.2523118549028612</v>
+      </c>
+      <c r="T17">
+        <v>0.2523118549028613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.423291</v>
+      </c>
+      <c r="H18">
+        <v>115.269873</v>
+      </c>
+      <c r="I18">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J18">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>60.87163533333334</v>
+      </c>
+      <c r="N18">
+        <v>182.614906</v>
+      </c>
+      <c r="O18">
+        <v>0.5131705284627005</v>
+      </c>
+      <c r="P18">
+        <v>0.5131705284627006</v>
+      </c>
+      <c r="Q18">
+        <v>2338.888558058549</v>
+      </c>
+      <c r="R18">
+        <v>21049.99702252694</v>
+      </c>
+      <c r="S18">
+        <v>0.3174582392206488</v>
+      </c>
+      <c r="T18">
+        <v>0.3174582392206489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.423291</v>
+      </c>
+      <c r="H19">
+        <v>115.269873</v>
+      </c>
+      <c r="I19">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J19">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.09713466666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.291404</v>
+      </c>
+      <c r="O19">
+        <v>0.000818881371469998</v>
+      </c>
+      <c r="P19">
+        <v>0.0008188813714699981</v>
+      </c>
+      <c r="Q19">
+        <v>3.732233563521333</v>
+      </c>
+      <c r="R19">
+        <v>33.590102071692</v>
+      </c>
+      <c r="S19">
+        <v>0.0005065774901302631</v>
+      </c>
+      <c r="T19">
+        <v>0.0005065774901302633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.423291</v>
+      </c>
+      <c r="H20">
+        <v>115.269873</v>
+      </c>
+      <c r="I20">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J20">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04810533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.144316</v>
+      </c>
+      <c r="O20">
+        <v>0.000405545853883489</v>
+      </c>
+      <c r="P20">
+        <v>0.0004055458538834891</v>
+      </c>
+      <c r="Q20">
+        <v>1.848365221318667</v>
+      </c>
+      <c r="R20">
+        <v>16.635286991868</v>
+      </c>
+      <c r="S20">
+        <v>0.0002508793189717336</v>
+      </c>
+      <c r="T20">
+        <v>0.0002508793189717337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>38.423291</v>
+      </c>
+      <c r="H21">
+        <v>115.269873</v>
+      </c>
+      <c r="I21">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J21">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.221835</v>
+      </c>
+      <c r="N21">
+        <v>27.665505</v>
+      </c>
+      <c r="O21">
+        <v>0.0777434993233109</v>
+      </c>
+      <c r="P21">
+        <v>0.07774349932331091</v>
+      </c>
+      <c r="Q21">
+        <v>354.333249758985</v>
+      </c>
+      <c r="R21">
+        <v>3188.999247830865</v>
+      </c>
+      <c r="S21">
+        <v>0.04809378761474189</v>
+      </c>
+      <c r="T21">
+        <v>0.04809378761474191</v>
       </c>
     </row>
   </sheetData>
